--- a/LF/TAS/Burkina Faso/2024/oct/bf_lf_tas3_2410_2_participant.xlsx
+++ b/LF/TAS/Burkina Faso/2024/oct/bf_lf_tas3_2410_2_participant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Burkina Faso\2024\jan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Burkina Faso\2024\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77272A-FB56-478F-BF62-F6D34220B1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7F36F7-177A-4F7C-BBDF-C765B3A78281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1081,12 +1081,6 @@
     <t>2_nouvel_entrant</t>
   </si>
   <si>
-    <t>bf_lf_tas1_202401_2_participant_3</t>
-  </si>
-  <si>
-    <t>(Jan 2024) Burkina Faso TAS FL - 2. Formulaire Enrôlement V3</t>
-  </si>
-  <si>
     <t>1 Enregistré précédemment</t>
   </si>
   <si>
@@ -1100,6 +1094,12 @@
   </si>
   <si>
     <t>${status} = '1_enregistre_precedemment'</t>
+  </si>
+  <si>
+    <t>bf_lf_tas3_2410_2_participant</t>
+  </si>
+  <si>
+    <t>(Oct 2024) Burkina Faso TAS3 - 2. Formulaire Enrôlement</t>
   </si>
 </sst>
 </file>
@@ -2215,13 +2215,13 @@
         <v>167</v>
       </c>
       <c r="B25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" t="s">
+        <v>346</v>
+      </c>
+      <c r="H25" t="s">
         <v>347</v>
-      </c>
-      <c r="C25" t="s">
-        <v>348</v>
-      </c>
-      <c r="H25" t="s">
-        <v>349</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>10</v>
@@ -3508,10 +3508,10 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C62" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3999,7 +3999,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4021,10 +4021,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
         <v>73</v>
@@ -4036,15 +4036,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F61D857ACC8084D9287671D8B7E15F4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b2b3977cbccd3bcf631390164057ea08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92042fd9-f4c9-49ed-97f1-ba485e322b1e" xmlns:ns3="744cc826-a471-4feb-879c-6424ce8a761f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e6655229457273daeac0ec2bc1901eb" ns2:_="" ns3:_="">
     <xsd:import namespace="92042fd9-f4c9-49ed-97f1-ba485e322b1e"/>
@@ -4273,15 +4264,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA70DE9-52EB-4A74-A92B-6BC33DECE403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7691146D-9A17-4B60-A330-159941DFBC25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4298,4 +4290,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA70DE9-52EB-4A74-A92B-6BC33DECE403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LF/TAS/Burkina Faso/2024/oct/bf_lf_tas3_2410_2_participant.xlsx
+++ b/LF/TAS/Burkina Faso/2024/oct/bf_lf_tas3_2410_2_participant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Burkina Faso\2024\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7F36F7-177A-4F7C-BBDF-C765B3A78281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C4EB99-E5BD-4451-8BE1-511B21583A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="265">
   <si>
     <t>type</t>
   </si>
@@ -106,9 +106,6 @@
     <t>statut_enr</t>
   </si>
   <si>
-    <t>select_one statut_enr</t>
-  </si>
-  <si>
     <t>10_RCI</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>migration_list</t>
   </si>
   <si>
-    <t>select_one migration_list</t>
-  </si>
-  <si>
     <t>Hydrocèle</t>
   </si>
   <si>
@@ -148,12 +142,6 @@
     <t>csps</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>migration</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
@@ -214,12 +202,6 @@
     <t>2_non</t>
   </si>
   <si>
-    <t>hydrocele</t>
-  </si>
-  <si>
-    <t>lymphoedeme</t>
-  </si>
-  <si>
     <t>12_autre_localité_du_Burkina_Faso</t>
   </si>
   <si>
@@ -232,9 +214,6 @@
     <t>11_GH</t>
   </si>
   <si>
-    <t>migration_autre</t>
-  </si>
-  <si>
     <t>Lymphodeme</t>
   </si>
   <si>
@@ -277,15 +256,6 @@
     <t>Aucune</t>
   </si>
   <si>
-    <t>Numero_famille</t>
-  </si>
-  <si>
-    <t>Numero_Enquete</t>
-  </si>
-  <si>
-    <t>.&gt;4 and .&lt;110</t>
-  </si>
-  <si>
     <t>Doit être comprise entre 5 et 110</t>
   </si>
   <si>
@@ -301,15 +271,6 @@
     <t>${p_consent} = '1_oui'</t>
   </si>
   <si>
-    <t>regex(., '^[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>Entrer uniquement les trois derniers chiffre du numéro enquété</t>
-  </si>
-  <si>
-    <t>Numero_Enquete_complet</t>
-  </si>
-  <si>
     <t>read_only</t>
   </si>
   <si>
@@ -346,30 +307,12 @@
     <t>p_end</t>
   </si>
   <si>
-    <t>${p_sex}='M' and ${p_consent} = '1_oui'</t>
-  </si>
-  <si>
     <t xml:space="preserve">string-length(.)=10 </t>
   </si>
   <si>
     <t>Le code répété doit être le même</t>
   </si>
   <si>
-    <t>Le code doit être 3 chiffres</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Trois chiffres</t>
-    </r>
-  </si>
-  <si>
     <t>a_non_eligible</t>
   </si>
   <si>
@@ -394,78 +337,9 @@
     <t>list_migration</t>
   </si>
   <si>
-    <t>nb_bandelette</t>
-  </si>
-  <si>
-    <t>.&gt;=1 and .&lt;=2</t>
-  </si>
-  <si>
-    <t>d_lotnumber1</t>
-  </si>
-  <si>
-    <t>d_result1</t>
-  </si>
-  <si>
-    <t>fts1_invalid_description</t>
-  </si>
-  <si>
-    <t>${d_result1} = '3_Invalide'</t>
-  </si>
-  <si>
-    <t>autre_expliquer_fts1</t>
-  </si>
-  <si>
-    <t>Si Autre (expliquer)</t>
-  </si>
-  <si>
-    <t>${fts1_invalid_description}='G_Autre_expliquer'</t>
-  </si>
-  <si>
-    <t>photo1</t>
-  </si>
-  <si>
-    <t>Prendre les photos si positif ou invalide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${d_result1} = '1_Positif' or ${d_result1} = '3_Invalide' </t>
-  </si>
-  <si>
-    <t>d_lotnumber2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>${nb_bandelette} &gt; 1</t>
-  </si>
-  <si>
-    <t>d_result2</t>
-  </si>
-  <si>
-    <t>fts2_invalid_description</t>
-  </si>
-  <si>
-    <t>${d_result2} = '3_Invalide'</t>
-  </si>
-  <si>
-    <t>photo2</t>
-  </si>
-  <si>
-    <t>Prendre les photos  si positif ou invalide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${d_result2} =  '1_Positif' or ${d_result2} = '3_Invalide' </t>
-  </si>
-  <si>
     <t>defis_operationnels</t>
   </si>
   <si>
-    <t>defis_operationnels_autre</t>
-  </si>
-  <si>
-    <t>${defis_operationnels}='S_Autre (expliquer)'</t>
-  </si>
-  <si>
     <t>A_Aucun</t>
   </si>
   <si>
@@ -556,15 +430,6 @@
     <t>select_one list_oui_non</t>
   </si>
   <si>
-    <t>Recu_IVM</t>
-  </si>
-  <si>
-    <t>select_one list_nb_ivm</t>
-  </si>
-  <si>
-    <t>nb_ivm_avale</t>
-  </si>
-  <si>
     <t>list_oui_non</t>
   </si>
   <si>
@@ -649,147 +514,6 @@
     <t>Exemple "FL23120001"</t>
   </si>
   <si>
-    <t>1.Code opérateurs</t>
-  </si>
-  <si>
-    <t>2. District</t>
-  </si>
-  <si>
-    <t>3. CSPS</t>
-  </si>
-  <si>
-    <t>4. Village/Site</t>
-  </si>
-  <si>
-    <t>5. Code Site</t>
-  </si>
-  <si>
-    <t>6.Le répondant a-t-il donné son consentement?</t>
-  </si>
-  <si>
-    <t>7. Souhaitez-vous scanner ou saisir manuellement le code-barres?</t>
-  </si>
-  <si>
-    <t>8. Code barre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. Saisir le code barre </t>
-  </si>
-  <si>
-    <t>9b. Saisir le code barre à nouveau</t>
-  </si>
-  <si>
-    <t>10. Numéro famille</t>
-  </si>
-  <si>
-    <t>11. Numéro enquêté (${p_recorder_id}${Numero_famille}...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. Le numéro complet de l'enquété </t>
-  </si>
-  <si>
-    <t>13. Age</t>
-  </si>
-  <si>
-    <t>14. Sexe</t>
-  </si>
-  <si>
-    <t>15. Statut enregistrement</t>
-  </si>
-  <si>
-    <t>16. Avez-vous déjà été traité à l’ivermectine et Albendazole pour traiter la FL?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17. En incluant la dernière campagne, combien de fois avez-vous pris des médicaments contre la FL? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17b.Si  jamais avalé médicaments contre la FL pourquoi ? </t>
-  </si>
-  <si>
-    <t>18. Migration (personnes entrée il y a moins 5 ans d'un pays voisin ou autre localités)</t>
-  </si>
-  <si>
-    <t>19. Si autre précisez</t>
-  </si>
-  <si>
-    <t>20. Présence de Lymphoedème</t>
-  </si>
-  <si>
-    <t>21. Présence de Hydrocèle</t>
-  </si>
-  <si>
-    <t>select_one fts_lot</t>
-  </si>
-  <si>
-    <t>select_one resultat_list</t>
-  </si>
-  <si>
-    <t>select_one invalid_desc_list</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>select_one defis_operationnels</t>
-  </si>
-  <si>
-    <t>22.Le participant a t_il été prélevé?</t>
-  </si>
-  <si>
-    <t>23. Nombre de Bandelette FTS utilisée pour tester l’individu</t>
-  </si>
-  <si>
-    <t>24. Lots FTS1</t>
-  </si>
-  <si>
-    <t>25. Résultats FTS1</t>
-  </si>
-  <si>
-    <t>26.Description d’invalidation de test 1</t>
-  </si>
-  <si>
-    <t>27.Si Autre (expliquer)</t>
-  </si>
-  <si>
-    <t>28. Photo FTS1</t>
-  </si>
-  <si>
-    <t>29. Lots FTS2</t>
-  </si>
-  <si>
-    <t>30. Résultats FTS2</t>
-  </si>
-  <si>
-    <t>31.Description d’invalidation de test 2</t>
-  </si>
-  <si>
-    <t>32. Photos FTS2</t>
-  </si>
-  <si>
-    <t>33. Défis opérationnels observés</t>
-  </si>
-  <si>
-    <t>34.Si autre précisez</t>
-  </si>
-  <si>
-    <t>Enrolement</t>
-  </si>
-  <si>
-    <t>Résultats</t>
-  </si>
-  <si>
-    <t>35.Vous venez de saisir une valeur qui mettra fin à l'enquête</t>
-  </si>
-  <si>
-    <t>36.Commentaires</t>
-  </si>
-  <si>
-    <t>Duree_sejour</t>
-  </si>
-  <si>
-    <t>La valeure ne peut pas être supérieure à l'age</t>
-  </si>
-  <si>
     <t>select_one list_scolarisation</t>
   </si>
   <si>
@@ -805,12 +529,6 @@
     <t>Superieure</t>
   </si>
   <si>
-    <t>15.Quel est votre niveau de scolarisation ?</t>
-  </si>
-  <si>
-    <t>16. Depuis combien d’année vivez-vous dans ce village ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">a_une fois </t>
   </si>
   <si>
@@ -859,24 +577,9 @@
     <t>d_autre_pays</t>
   </si>
   <si>
-    <t>${migration}='d_autre_pays' and ${p_consent} = '1_oui'</t>
-  </si>
-  <si>
-    <t>${Recu_IVM} = '1_oui'and ${p_consent} = '1_oui'</t>
-  </si>
-  <si>
-    <t>${Recu_IVM} = '2_non'and ${p_consent} = '1_oui'</t>
-  </si>
-  <si>
     <t>Alphabetise</t>
   </si>
   <si>
-    <t>select_one list_non_ivm</t>
-  </si>
-  <si>
-    <t>non_ivm</t>
-  </si>
-  <si>
     <t>list_non_ivm</t>
   </si>
   <si>
@@ -994,39 +697,12 @@
     <t>kounkouna</t>
   </si>
   <si>
-    <t>p_site_name</t>
-  </si>
-  <si>
-    <t>p_site_id</t>
-  </si>
-  <si>
-    <t>select_one list_nbfts</t>
-  </si>
-  <si>
     <t>list_nbfts</t>
   </si>
   <si>
-    <t>Satut_prelev</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Resultats</t>
-  </si>
-  <si>
     <t>fts_lot</t>
   </si>
   <si>
-    <t>concat(${p_site_id}, '-',${p_recorder_id},'-', ${Numero_famille},'-',${Numero_Enquete})</t>
-  </si>
-  <si>
-    <t>. &lt;= ${p_age_yrs}</t>
-  </si>
-  <si>
-    <t>${Satut_prelev} = '1_oui'</t>
-  </si>
-  <si>
     <t>${Satut_prelev} = '2_Non'</t>
   </si>
   <si>
@@ -1036,9 +712,6 @@
     <t>C_Difficulte_d_absorption_echantillon</t>
   </si>
   <si>
-    <t xml:space="preserve">Cliquer suivant pour saisir les informations sur les caractéristiques de l’enquêté </t>
-  </si>
-  <si>
     <t>Alphabétise</t>
   </si>
   <si>
@@ -1057,24 +730,6 @@
     <t xml:space="preserve">g. Autres raisons </t>
   </si>
   <si>
-    <t>${Duree_sejour} = 0</t>
-  </si>
-  <si>
-    <t>16.b. Préciser le nombre de mois</t>
-  </si>
-  <si>
-    <t>. &lt; 12</t>
-  </si>
-  <si>
-    <t>Le nombre de mois ne dois pas dépasser 11</t>
-  </si>
-  <si>
-    <t>Duree_sejour_mois</t>
-  </si>
-  <si>
-    <t>Cliquer suivant pour  saisir les informations sur le résultat de l’enquêté</t>
-  </si>
-  <si>
     <t>2 Nouvel entrant</t>
   </si>
   <si>
@@ -1087,19 +742,100 @@
     <t>1_enregistre_precedemment</t>
   </si>
   <si>
-    <t>ancien_positif</t>
-  </si>
-  <si>
-    <t>15.b. Ancien positif</t>
-  </si>
-  <si>
-    <t>${status} = '1_enregistre_precedemment'</t>
-  </si>
-  <si>
-    <t>bf_lf_tas3_2410_2_participant</t>
-  </si>
-  <si>
-    <t>(Oct 2024) Burkina Faso TAS3 - 2. Formulaire Enrôlement</t>
+    <t>bf_lf_tas3_2410_2_participant_v2</t>
+  </si>
+  <si>
+    <t>(Oct 2024) Burkina Faso TAS3 - 2. Formulaire Enrôlement V2</t>
+  </si>
+  <si>
+    <t>Code opérateurs</t>
+  </si>
+  <si>
+    <t>ue</t>
+  </si>
+  <si>
+    <t>Sélectionner l'UE</t>
+  </si>
+  <si>
+    <t>Sélectionner un District</t>
+  </si>
+  <si>
+    <t>nb_grappe</t>
+  </si>
+  <si>
+    <t>grappe</t>
+  </si>
+  <si>
+    <t>Sélectionner un CSPS</t>
+  </si>
+  <si>
+    <t>Sélectionner un N° grappe</t>
+  </si>
+  <si>
+    <t>Sélectionner un Grappe</t>
+  </si>
+  <si>
+    <t>nb_menage</t>
+  </si>
+  <si>
+    <t>N° Ménage</t>
+  </si>
+  <si>
+    <t>regex(., '^[A-Z]\d{3}$')</t>
+  </si>
+  <si>
+    <t>Le code doit contenir une lettre et trois chiffres</t>
+  </si>
+  <si>
+    <t>nb_menage2</t>
+  </si>
+  <si>
+    <t>Répéter le N° Ménage</t>
+  </si>
+  <si>
+    <t>. = ${nb_menage}</t>
+  </si>
+  <si>
+    <t>Le code répéter est incorrect</t>
+  </si>
+  <si>
+    <t>Le répondant a-t-il donné son consentement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Souhaitez-vous scanner ou saisir manuellement le code-barres?</t>
+  </si>
+  <si>
+    <t>Code barre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saisir le code barre </t>
+  </si>
+  <si>
+    <t>Saisir le code barre à nouveau</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>. &gt; 6 and . &lt; 7</t>
+  </si>
+  <si>
+    <t>Sexe</t>
+  </si>
+  <si>
+    <t>Quel est votre niveau de scolarisation ?</t>
+  </si>
+  <si>
+    <t>ivm_alb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déjà traité à l'Ivermectine/Albendazole </t>
+  </si>
+  <si>
+    <t>Vous venez de saisir une valeur qui mettra fin à l'enquête</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
   </si>
 </sst>
 </file>
@@ -1158,12 +894,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1201,6 +931,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1295,7 +1031,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1312,37 +1048,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1699,11 +1436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1448,7 @@
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
@@ -1729,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1741,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -1753,27 +1490,27 @@
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -1781,13 +1518,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -1795,37 +1532,31 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>314</v>
+        <v>45</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>202</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1834,17 +1565,17 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="6"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>315</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>239</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1857,847 +1588,308 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>83</v>
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H8" t="s">
+    <row r="8" spans="1:14" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="H17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="J18" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>263</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>85</v>
       </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" t="s">
-        <v>326</v>
-      </c>
-      <c r="G11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="B22" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" ht="32.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="4" t="s">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="6"/>
-      <c r="N15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="H18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H19" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="H20" t="s">
-        <v>335</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>214</v>
-      </c>
-      <c r="H24" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" t="s">
-        <v>345</v>
-      </c>
-      <c r="C25" t="s">
-        <v>346</v>
-      </c>
-      <c r="H25" t="s">
-        <v>347</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="H26" t="s">
-        <v>85</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="H27" t="s">
-        <v>270</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="H28" t="s">
-        <v>271</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>218</v>
-      </c>
-      <c r="H29" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>219</v>
-      </c>
-      <c r="H30" t="s">
-        <v>269</v>
-      </c>
-      <c r="J30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>220</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" t="s">
-        <v>221</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C34" t="s">
-        <v>227</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>229</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" t="s">
-        <v>230</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" t="s">
-        <v>231</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" t="s">
-        <v>124</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" t="s">
-        <v>235</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" t="s">
-        <v>236</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" t="s">
-        <v>133</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" t="s">
-        <v>238</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" t="s">
-        <v>239</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" t="s">
-        <v>242</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2709,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -2722,178 +1914,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>177</v>
+      <c r="F1" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="G1" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -2902,10 +2094,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -2914,547 +2106,547 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>293</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="E22" t="s">
-        <v>294</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>294</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>294</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>295</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>295</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>295</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="E28" t="s">
-        <v>295</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
-      </c>
-      <c r="G30" s="15"/>
+        <v>200</v>
+      </c>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G31" s="15"/>
+        <v>201</v>
+      </c>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s">
-        <v>282</v>
+        <v>186</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
-      </c>
-      <c r="G32" s="15"/>
+        <v>202</v>
+      </c>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
-      </c>
-      <c r="G33" s="15"/>
+        <v>203</v>
+      </c>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
-        <v>309</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
-      </c>
-      <c r="G35" s="15"/>
+        <v>205</v>
+      </c>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
-      </c>
-      <c r="G36" s="15"/>
+        <v>206</v>
+      </c>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>311</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>303</v>
-      </c>
-      <c r="G37" s="15"/>
+        <v>207</v>
+      </c>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
-      </c>
-      <c r="G38" s="15"/>
+        <v>208</v>
+      </c>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
-        <v>284</v>
+        <v>188</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
-      </c>
-      <c r="G39" s="15"/>
+        <v>209</v>
+      </c>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="G41" t="s">
-        <v>296</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="G42" t="s">
-        <v>306</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="G43" t="s">
-        <v>307</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="G44" t="s">
-        <v>308</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="G45" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
         <v>190</v>
       </c>
-      <c r="B46" t="s">
-        <v>286</v>
-      </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="G46" t="s">
-        <v>309</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="G47" t="s">
-        <v>310</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="G48" t="s">
-        <v>311</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="G49" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G50" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51"/>
     </row>
-    <row r="52" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
         <v>26</v>
-      </c>
-      <c r="D52"/>
-    </row>
-    <row r="53" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>27</v>
       </c>
       <c r="D53"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
         <v>44</v>
-      </c>
-      <c r="B56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3465,7 +2657,7 @@
         <v>19</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3476,30 +2668,30 @@
         <v>18</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D61" s="8"/>
     </row>
@@ -3508,10 +2700,10 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>344</v>
+        <v>232</v>
       </c>
       <c r="C62" t="s">
-        <v>343</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3519,469 +2711,469 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>230</v>
       </c>
       <c r="C63" t="s">
-        <v>341</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>329</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>330</v>
+        <v>224</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>330</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>331</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>332</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>333</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>334</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>264</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>31</v>
+      <c r="B83" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="B85" s="22">
+      <c r="A85" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="17">
         <v>1</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C85" s="17">
         <v>1</v>
       </c>
       <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="B86" s="22">
+      <c r="A86" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B86" s="17">
         <v>2</v>
       </c>
-      <c r="C86" s="22">
+      <c r="C86" s="17">
         <v>2</v>
       </c>
       <c r="D86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>277</v>
+      <c r="A87" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>162</v>
+      <c r="A88" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>164</v>
+      <c r="A89" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>166</v>
+      <c r="A90" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="D93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="D94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="D95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="D96" s="8"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="D97" s="8"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="D101" s="8"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="D102" s="8"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="D103" s="8"/>
     </row>
@@ -3999,7 +3191,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4016,18 +3208,18 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4036,6 +3228,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F61D857ACC8084D9287671D8B7E15F4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b2b3977cbccd3bcf631390164057ea08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92042fd9-f4c9-49ed-97f1-ba485e322b1e" xmlns:ns3="744cc826-a471-4feb-879c-6424ce8a761f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e6655229457273daeac0ec2bc1901eb" ns2:_="" ns3:_="">
     <xsd:import namespace="92042fd9-f4c9-49ed-97f1-ba485e322b1e"/>
@@ -4264,16 +3465,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA70DE9-52EB-4A74-A92B-6BC33DECE403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7691146D-9A17-4B60-A330-159941DFBC25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4290,12 +3490,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA70DE9-52EB-4A74-A92B-6BC33DECE403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>